--- a/TestData/conversion_table_Form A.xlsx
+++ b/TestData/conversion_table_Form A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuhu\OneDrive - University of Iowa\Github\EMReliability\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E28F22D7-0096-4463-86EE-493E70C43C16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{01D19519-AB81-48A2-9CF0-8CC7853C57D7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E28F22D7-0096-4463-86EE-493E70C43C16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7119A84-1B0C-4B76-952F-CB7C768F70A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C32A217-403D-49C1-9C82-7E79386BC57D}"/>
+    <workbookView xWindow="810" yWindow="855" windowWidth="21600" windowHeight="14745" xr2:uid="{9C32A217-403D-49C1-9C82-7E79386BC57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,13 +437,13 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
